--- a/data/trans_camb/P54_A_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_4_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-38,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-41,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-33,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,83</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,55; -17,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,49; -22,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,37; -17,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,85; -11,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,48; -22,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,91; -22,01</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,65%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -61,75</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -62,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,56; -35,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,07; -77,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -72,07</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,16</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,17; 10,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,19; -9,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,04; -10,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,78; -12,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,62; -1,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,61; -12,25</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,01%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,95; 87,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -77,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,79; -55,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -66,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,66; -0,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,19; -76,91</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,64</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,41; -3,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,37; -2,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,22; -7,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,29; -6,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,6; -7,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,52; -6,11</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,64%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -40,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -19,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -75,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -56,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,12; -78,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,16; -59,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1212,14 +1212,178 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-11,7</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-15,81</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-16,38</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-16,75</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-14,2</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-16,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-18,59; -2,59</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-22,28; -11,13</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-20,76; -11,86</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-21,28; -11,78</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; -9,98</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-20,55; -13,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-68,74%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-92,87%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-86,46%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-88,42%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-78,7%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-90,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-89,38; -9,01</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-97,86; -80,1</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-93,27; -74,61</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-95,74; -74,93</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-88,91; -53,62</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-95,43; -83,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_4_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-38,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-41,84</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-33,07</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-30,27</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-35,79</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-35,83</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-37.97538365888761</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-41.84010808886945</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-32.92805460215874</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-30.43743266528968</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-35.46749661536028</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-35.78254096223958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-68,55; -17,73</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-71,49; -22,3</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-49,37; -17,49</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-46,85; -11,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-54,48; -22,77</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-52,91; -22,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-67.88656563301086</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-71.49076356597038</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-49.9294631420855</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-47.10193309508571</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-53.95135784736807</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-52.73132236323703</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-91,98%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-91,02%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-83,32%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-91,54%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-91,65%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-16.93515344712031</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-22.29771589584714</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-17.48401800612118</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-11.96474038088477</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-22.34835004916825</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-21.94907643208893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -61,75</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -62,57</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-96,56; -35,56</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-98,07; -77,65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -72,07</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.9076311078887973</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.9063351745325835</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.8377815264315838</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.9073070728337799</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.9153663381177047</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,81</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-14,72</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-16,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-19,43</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-12,03</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-17,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.9657173250980958</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9803485420018274</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,17; 10,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-21,19; -9,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-24,04; -10,47</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-26,78; -12,89</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-17,62; -1,78</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-21,61; -12,25</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.5767251750362327</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="n">
+        <v>-0.6270303155205394</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.3568846034669038</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.7382032818092248</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.7153467027283061</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-43,05%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-93,09%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-79,48%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-91,13%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-64,52%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-92,01%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-7.148083279650937</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-14.82485041009844</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-17.04088623905755</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-19.7249584083578</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-12.2494778868133</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-17.35885940603248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-85,95; 87,41</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -77,45</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-90,79; -55,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -66,58</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-82,66; -0,16</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-98,19; -76,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.76060348628974</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-21.2632398239824</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-24.57264371874904</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-26.94959370503702</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-17.7279049624941</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-21.74895787088361</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-8,93</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,47</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-11,42</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-10,6</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-10,31</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-9,64</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.653093729372934</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-9.894539329260365</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-10.53210890857711</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-13.40717966200995</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-3.358315931627228</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-12.39980761373624</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-16,41; -3,33</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,37; -2,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,22; -7,45</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,29; -6,07</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-14,6; -7,03</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-14,52; -6,11</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.4520315791880653</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.9374961482584854</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.7991744726049793</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.9250506700188097</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.6567293165035344</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.9306577780981966</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-86,95%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-82,39%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-96,52%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-89,62%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-92,66%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-86,64%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.8405456210172073</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.9182248920113233</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.8380454070335225</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.9859888782533206</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -40,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -19,17</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -75,86</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -56,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-98,12; -78,68</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-96,16; -59,07</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.8968748523630869</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.7997579648461601</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.5928264018636926</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.7177330587338228</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.1550357048058705</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.8111369425939281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +924,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-9.016702599885308</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-8.655313624532623</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-11.37970992102596</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-10.5613843425881</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-10.31898080318616</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-9.705110914257165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-16.3113673067926</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-15.74404188731662</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-17.33534126638154</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-16.25636279017502</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-14.86966693969141</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-14.68289862539791</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-3.873392404259178</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-2.967075229649725</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-7.205342232481938</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-6.049079589278096</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-7.020173039157523</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-6.286450292599589</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.8774560987546713</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.8422877035533092</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.9619308539893061</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.8927575070436532</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.9270389045455778</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.8718899242130884</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-11,7</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-15,81</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-16,38</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-16,75</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-14,2</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-16,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.9799773068635045</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.9636240359100856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-18,59; -2,59</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-22,28; -11,13</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-20,76; -11,86</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-21,28; -11,78</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-18,32; -9,98</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-20,55; -13,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>-0.4424666654602558</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>-0.27701625632241</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.7941485411547061</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-0.5588521196223399</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>-0.7713016567588159</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>-0.6181802820088549</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-68,74%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-92,87%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-86,46%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-88,42%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-78,7%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-90,41%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-11.86285878988575</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-15.92806562085593</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-16.38592720569897</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-16.8654711735283</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-14.2605997879701</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-16.42172463015413</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-89,38; -9,01</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-97,86; -80,1</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-93,27; -74,61</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-95,74; -74,93</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-88,91; -53,62</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-95,43; -83,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-18.67462770485087</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-22.43599998826326</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-20.62851567582505</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-21.29604836487334</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-18.08051040434918</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-20.67815562334413</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-3.78322859947298</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-11.24509158172733</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-11.63405893562655</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-12.00384104148934</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-10.04232575834117</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-13.30073866895848</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.6967620097266386</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.9355309044483906</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.8648740401919008</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.8901850966673599</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.7905266728262259</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.9103271620381195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.8912361098213031</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.9815772215936565</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.9297203535289281</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.9591636826756142</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.8817411352203014</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.9573212635162951</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.104138536022659</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.8261791770877451</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.7395112997110764</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.7715330171271567</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.5449532988880538</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.8404023753301213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
